--- a/Data/EC/NIT-9004042733.xlsx
+++ b/Data/EC/NIT-9004042733.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C91AC75-4B7F-46C2-894A-09A7EA7D616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36E31D9-DB98-4AA8-9FB6-E1A6F4924DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4A90042-B342-4DAF-A936-FE9B9AF47351}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82443217-2088-4EDD-B41C-29B0EB9C7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="155">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,109 +65,385 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047402190</t>
+  </si>
+  <si>
+    <t>YUSTIN CAROLINA ROMERO MENDOZA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>45758136</t>
+  </si>
+  <si>
+    <t>ALEXANDRA BLANCO BLANCO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>1042421402</t>
   </si>
   <si>
     <t>FABIAN ALCIDES LONDOÑO PADILLA</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
+    <t>45531422</t>
+  </si>
+  <si>
+    <t>ROSALBA COLON OROZCO</t>
+  </si>
+  <si>
+    <t>33219652</t>
+  </si>
+  <si>
+    <t>SURGEIDIS ARGUELLES PIÑERES</t>
+  </si>
+  <si>
+    <t>33354379</t>
+  </si>
+  <si>
+    <t>GEHIDI YOHANA MARTINEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>1143345806</t>
+  </si>
+  <si>
+    <t>KELLY JOHANNA AHUMADA BATISTA</t>
+  </si>
+  <si>
     <t>1047470034</t>
   </si>
   <si>
     <t>JOHANNA PATRICIA VELASQUEZ IRIARTE</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
+    <t>1235047649</t>
+  </si>
+  <si>
+    <t>LEOFEL ADRIAN ROMAN PRADA</t>
   </si>
   <si>
     <t>1067595437</t>
@@ -176,265 +452,22 @@
     <t>LUZ MARY PAEZ</t>
   </si>
   <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>45531422</t>
-  </si>
-  <si>
-    <t>ROSALBA COLON OROZCO</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>45758136</t>
-  </si>
-  <si>
-    <t>ALEXANDRA BLANCO BLANCO</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1143345806</t>
-  </si>
-  <si>
-    <t>KELLY JOHANNA AHUMADA BATISTA</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1047402190</t>
-  </si>
-  <si>
-    <t>YUSTIN CAROLINA ROMERO MENDOZA</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>33354379</t>
-  </si>
-  <si>
-    <t>GEHIDI YOHANA MARTINEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1047480051</t>
+  </si>
+  <si>
+    <t>JULIO CESAR AYALA BUELVAS</t>
+  </si>
+  <si>
+    <t>33253802</t>
+  </si>
+  <si>
+    <t>ELIANA MARGARITA PAJARO POLO</t>
+  </si>
+  <si>
+    <t>1143405745</t>
+  </si>
+  <si>
+    <t>CICELY ENETH SEMACARITT CASTILLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -848,7 +881,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AE7C4F-5BFE-F110-094F-4CC5746A19B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9134E4C-7FDB-3944-743F-1148D5676C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,8 +1232,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C985B02B-C0DA-4A91-B75F-E865BA6FDE9A}">
-  <dimension ref="B2:J374"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4487-9436-4143-B286-9A91A3FF7BD4}">
+  <dimension ref="B2:J414"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1224,7 +1257,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1269,7 +1302,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1301,12 +1334,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>12550732</v>
+        <v>14436085</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1317,17 +1350,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1354,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1377,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1391,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1414,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1446,10 +1479,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1460,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1489,13 +1522,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1506,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1535,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1558,13 +1591,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1575,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1598,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1627,13 +1660,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1650,13 +1683,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1667,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1696,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1713,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1742,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1759,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1782,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1811,13 +1844,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1828,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1857,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1880,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1897,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1926,13 +1959,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1943,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1966,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1989,19 +2022,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2012,19 +2045,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2035,19 +2068,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2058,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2081,19 +2114,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2104,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2127,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2150,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2173,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2196,19 +2229,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2219,19 +2252,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2242,19 +2275,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2265,19 +2298,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2288,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2311,19 +2344,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2334,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>90696</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>4492596</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2357,16 +2390,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2380,16 +2413,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F60" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2403,16 +2436,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2426,16 +2459,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F62" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2449,16 +2482,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2472,16 +2505,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2495,16 +2528,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2518,16 +2551,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F66" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2541,16 +2574,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2564,13 +2597,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2587,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2610,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2633,13 +2666,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2656,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2679,13 +2712,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2702,13 +2735,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2725,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2748,13 +2781,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2771,13 +2804,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2794,19 +2827,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F78" s="18">
-        <v>25396</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2817,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2840,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2863,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2886,13 +2919,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2909,19 +2942,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F83" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2932,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F84" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2955,13 +2988,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2978,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -3001,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3024,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3047,19 +3080,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3070,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3093,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3116,19 +3149,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F92" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3139,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3162,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3185,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F95" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3208,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3231,13 +3264,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3254,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F98" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3277,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3300,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3323,19 +3356,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F101" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3346,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3369,19 +3402,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F103" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3392,13 +3425,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3415,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3438,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3461,19 +3494,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F107" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3484,13 +3517,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3507,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3530,19 +3563,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3553,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3576,19 +3609,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F112" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3599,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3622,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3645,13 +3678,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3668,19 +3701,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F116" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3691,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F117" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3714,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3737,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3760,13 +3793,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3783,19 +3816,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F121" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3806,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3829,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3852,19 +3885,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F124" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3875,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3898,13 +3931,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3921,19 +3954,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F127" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3944,13 +3977,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3967,13 +4000,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3990,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F130" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4013,13 +4046,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4036,13 +4069,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4059,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4082,19 +4115,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F134" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4105,13 +4138,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4128,19 +4161,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F136" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4151,13 +4184,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4174,13 +4207,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4197,13 +4230,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4220,19 +4253,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F140" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4243,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4266,19 +4299,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F142" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G142" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4289,16 +4322,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4312,16 +4345,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4335,19 +4368,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F145" s="18">
-        <v>35112</v>
+        <v>27578</v>
       </c>
       <c r="G145" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4358,19 +4391,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F146" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G146" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4381,16 +4414,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G147" s="18">
         <v>781242</v>
@@ -4404,16 +4437,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G148" s="18">
         <v>781242</v>
@@ -4427,19 +4460,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F149" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G149" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4450,16 +4483,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G150" s="18">
         <v>781242</v>
@@ -4473,16 +4506,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4496,16 +4529,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G152" s="18">
         <v>781242</v>
@@ -4519,19 +4552,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F153" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G153" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4542,16 +4575,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4565,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4588,19 +4621,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F156" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G156" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4611,16 +4644,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4634,19 +4667,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F158" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G158" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4657,16 +4690,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4680,16 +4713,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4703,19 +4736,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="F161" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G161" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4726,16 +4759,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4749,16 +4782,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4772,16 +4805,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4795,19 +4828,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F165" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G165" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4818,19 +4851,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F166" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G166" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4841,19 +4874,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F167" s="18">
-        <v>33125</v>
+        <v>27578</v>
       </c>
       <c r="G167" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4864,19 +4897,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4887,19 +4920,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4910,19 +4943,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F170" s="18">
-        <v>33125</v>
+        <v>36341</v>
       </c>
       <c r="G170" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4933,19 +4966,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4956,19 +4989,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F172" s="18">
-        <v>90696</v>
+        <v>31200</v>
       </c>
       <c r="G172" s="18">
-        <v>4492596</v>
+        <v>1300000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4979,19 +5012,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F173" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5002,19 +5035,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="F174" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G174" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5025,19 +5058,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5048,19 +5081,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F176" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G176" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5071,19 +5104,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F177" s="18">
-        <v>90696</v>
+        <v>52000</v>
       </c>
       <c r="G177" s="18">
-        <v>4492596</v>
+        <v>1300000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5094,19 +5127,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5117,19 +5150,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F179" s="18">
-        <v>90696</v>
+        <v>52000</v>
       </c>
       <c r="G179" s="18">
-        <v>4492596</v>
+        <v>1300000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5140,19 +5173,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F180" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G180" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5163,19 +5196,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5186,19 +5219,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F182" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G182" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5209,19 +5242,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F183" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G183" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5232,19 +5265,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F184" s="18">
-        <v>90696</v>
+        <v>52000</v>
       </c>
       <c r="G184" s="18">
-        <v>4492596</v>
+        <v>1300000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5255,19 +5288,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F185" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G185" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5278,19 +5311,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F186" s="18">
-        <v>90696</v>
+        <v>40000</v>
       </c>
       <c r="G186" s="18">
-        <v>4492596</v>
+        <v>1000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5301,19 +5334,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F187" s="18">
-        <v>33125</v>
+        <v>40000</v>
       </c>
       <c r="G187" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5324,19 +5357,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G188" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5347,13 +5380,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5370,19 +5403,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F190" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5393,13 +5426,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5416,13 +5449,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5439,19 +5472,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F193" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5462,19 +5495,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F194" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5485,13 +5518,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5508,19 +5541,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F196" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5531,13 +5564,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5554,13 +5587,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5577,19 +5610,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F199" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5600,19 +5633,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F200" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5623,13 +5656,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5646,19 +5679,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="F202" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5669,19 +5702,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F203" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5692,13 +5725,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5715,19 +5748,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F205" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5738,13 +5771,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5761,19 +5794,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F207" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5784,19 +5817,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F208" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5807,13 +5840,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5830,19 +5863,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F210" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5853,13 +5886,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5876,19 +5909,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="F212" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5899,13 +5932,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F213" s="18">
         <v>31249</v>
@@ -5922,13 +5955,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5945,19 +5978,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F215" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5968,19 +6001,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F216" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5991,19 +6024,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F217" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6014,13 +6047,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F218" s="18">
         <v>31249</v>
@@ -6037,19 +6070,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F219" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6060,13 +6093,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -6083,19 +6116,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F221" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6106,13 +6139,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -6129,13 +6162,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
@@ -6152,19 +6185,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F224" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6175,19 +6208,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F225" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6198,19 +6231,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E226" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D226" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="F226" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6221,13 +6254,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6244,13 +6277,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6267,19 +6300,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F229" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6290,13 +6323,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
@@ -6313,19 +6346,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F231" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6336,13 +6369,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
@@ -6359,19 +6392,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F233" s="18">
-        <v>90696</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6382,13 +6415,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6405,13 +6438,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6428,19 +6461,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F236" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6451,13 +6484,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6474,19 +6507,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F238" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6497,13 +6530,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6520,13 +6553,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6543,13 +6576,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6566,19 +6599,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F242" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6589,19 +6622,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F243" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6612,13 +6645,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6635,13 +6668,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6658,13 +6691,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6681,19 +6714,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F247" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6704,13 +6737,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6727,19 +6760,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F249" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6750,13 +6783,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6773,13 +6806,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6796,13 +6829,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6819,19 +6852,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F253" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6842,13 +6875,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6865,19 +6898,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F255" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6888,13 +6921,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6911,13 +6944,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6934,19 +6967,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F258" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6957,19 +6990,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F259" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6980,13 +7013,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -7003,13 +7036,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7026,19 +7059,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F262" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7049,19 +7082,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F263" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G263" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7072,13 +7105,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7095,19 +7128,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F265" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7118,19 +7151,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F266" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7141,13 +7174,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7164,13 +7197,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
@@ -7187,19 +7220,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F269" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7210,13 +7243,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7233,19 +7266,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F271" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7256,16 +7289,16 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F272" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G272" s="18">
         <v>781242</v>
@@ -7279,19 +7312,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F273" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G273" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7302,16 +7335,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7325,19 +7358,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F275" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G275" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7348,16 +7381,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F276" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G276" s="18">
         <v>781242</v>
@@ -7371,19 +7404,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F277" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G277" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7394,16 +7427,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7417,19 +7450,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F279" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G279" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7440,16 +7473,16 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F280" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G280" s="18">
         <v>781242</v>
@@ -7463,19 +7496,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F281" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G281" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7486,16 +7519,16 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F282" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G282" s="18">
         <v>781242</v>
@@ -7509,19 +7542,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F283" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G283" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7532,19 +7565,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F284" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G284" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7555,19 +7588,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F285" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G285" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7578,16 +7611,16 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G286" s="18">
         <v>781242</v>
@@ -7601,16 +7634,16 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E287" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F287" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G287" s="18">
         <v>781242</v>
@@ -7624,16 +7657,16 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E288" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F288" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G288" s="18">
         <v>781242</v>
@@ -7647,19 +7680,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D289" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D289" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E289" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="F289" s="18">
-        <v>52000</v>
+        <v>25774</v>
       </c>
       <c r="G289" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7670,19 +7703,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F290" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G290" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7693,16 +7726,16 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F291" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G291" s="18">
         <v>781242</v>
@@ -7716,19 +7749,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F292" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G292" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7739,16 +7772,16 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F293" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G293" s="18">
         <v>781242</v>
@@ -7762,16 +7795,16 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G294" s="18">
         <v>781242</v>
@@ -7785,19 +7818,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F295" s="18">
-        <v>52000</v>
+        <v>25774</v>
       </c>
       <c r="G295" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7808,19 +7841,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F296" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G296" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7831,19 +7864,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F297" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G297" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7854,19 +7887,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F298" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G298" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7877,13 +7910,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F299" s="18">
         <v>52000</v>
@@ -7900,19 +7933,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F300" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G300" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7923,19 +7956,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F301" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G301" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7946,19 +7979,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F302" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G302" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7969,19 +8002,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="F303" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G303" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7992,13 +8025,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F304" s="18">
         <v>52000</v>
@@ -8015,19 +8048,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F305" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G305" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8038,19 +8071,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F306" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G306" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8061,19 +8094,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F307" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G307" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8084,19 +8117,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F308" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G308" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8107,13 +8140,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="F309" s="18">
         <v>52000</v>
@@ -8130,19 +8163,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="F310" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G310" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8153,19 +8186,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F311" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G311" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8176,19 +8209,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F312" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G312" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8199,19 +8232,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="F313" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G313" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8222,13 +8255,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="F314" s="18">
         <v>52000</v>
@@ -8245,19 +8278,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="F315" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G315" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8268,13 +8301,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="F316" s="18">
         <v>33125</v>
@@ -8291,19 +8324,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E317" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D317" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="F317" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8314,13 +8347,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="F318" s="18">
         <v>33125</v>
@@ -8337,19 +8370,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F319" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G319" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8360,19 +8393,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F320" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G320" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8383,19 +8416,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F321" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G321" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8406,19 +8439,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F322" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G322" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8429,19 +8462,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F323" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G323" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8452,19 +8485,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F324" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G324" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8475,19 +8508,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F325" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G325" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8498,13 +8531,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F326" s="18">
         <v>33125</v>
@@ -8521,19 +8554,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F327" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G327" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8544,19 +8577,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F328" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G328" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8567,19 +8600,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="F329" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G329" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8590,19 +8623,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="F330" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G330" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8613,13 +8646,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="F331" s="18">
         <v>33125</v>
@@ -8636,19 +8669,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="F332" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G332" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8659,19 +8692,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F333" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G333" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8682,13 +8715,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F334" s="18">
         <v>33125</v>
@@ -8705,19 +8738,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="F335" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G335" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8728,19 +8761,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="F336" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G336" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8751,19 +8784,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F337" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G337" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8774,13 +8807,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="F338" s="18">
         <v>33125</v>
@@ -8797,19 +8830,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="F339" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G339" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8820,19 +8853,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="F340" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G340" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8843,19 +8876,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F341" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G341" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8866,19 +8899,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="F342" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G342" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8889,13 +8922,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="F343" s="18">
         <v>33125</v>
@@ -8912,19 +8945,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F344" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G344" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8935,19 +8968,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F345" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G345" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8958,19 +8991,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="F346" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G346" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8981,19 +9014,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F347" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G347" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -9004,19 +9037,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F348" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G348" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9027,13 +9060,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="F349" s="18">
         <v>33125</v>
@@ -9050,19 +9083,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F350" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G350" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9073,19 +9106,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="F351" s="18">
-        <v>31200</v>
+        <v>33125</v>
       </c>
       <c r="G351" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9096,19 +9129,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="F352" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G352" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9119,19 +9152,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F353" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G353" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9142,13 +9175,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D354" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E354" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="E354" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="F354" s="18">
         <v>33125</v>
@@ -9165,19 +9198,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F355" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G355" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9188,19 +9221,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F356" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G356" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9211,19 +9244,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F357" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G357" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9234,19 +9267,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F358" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G358" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9257,13 +9290,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="F359" s="18">
         <v>33125</v>
@@ -9280,19 +9313,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="F360" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G360" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9303,19 +9336,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="F361" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G361" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9326,19 +9359,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="F362" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G362" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9349,19 +9382,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="F363" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G363" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9372,13 +9405,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="F364" s="18">
         <v>33125</v>
@@ -9395,19 +9428,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="F365" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G365" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9418,13 +9451,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F366" s="18">
         <v>33125</v>
@@ -9441,75 +9474,995 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F367" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G367" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
       <c r="J367" s="20"/>
     </row>
     <row r="368" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B368" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C368" s="22" t="s">
+      <c r="B368" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F368" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G368" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H368" s="19"/>
+      <c r="I368" s="19"/>
+      <c r="J368" s="20"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B369" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E369" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F369" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G369" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H369" s="19"/>
+      <c r="I369" s="19"/>
+      <c r="J369" s="20"/>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B370" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E370" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F370" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G370" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H370" s="19"/>
+      <c r="I370" s="19"/>
+      <c r="J370" s="20"/>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B371" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E371" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F371" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G371" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H371" s="19"/>
+      <c r="I371" s="19"/>
+      <c r="J371" s="20"/>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B372" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E372" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F372" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G372" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H372" s="19"/>
+      <c r="I372" s="19"/>
+      <c r="J372" s="20"/>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B373" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E373" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F373" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G373" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H373" s="19"/>
+      <c r="I373" s="19"/>
+      <c r="J373" s="20"/>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B374" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E374" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F374" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G374" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H374" s="19"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="20"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B375" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D375" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F375" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G375" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H375" s="19"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B376" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F376" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G376" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H376" s="19"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="20"/>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B377" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F377" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G377" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H377" s="19"/>
+      <c r="I377" s="19"/>
+      <c r="J377" s="20"/>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B378" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F378" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G378" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H378" s="19"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B379" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F379" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G379" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H379" s="19"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="20"/>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B380" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D380" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F380" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G380" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H380" s="19"/>
+      <c r="I380" s="19"/>
+      <c r="J380" s="20"/>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B381" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F381" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G381" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H381" s="19"/>
+      <c r="I381" s="19"/>
+      <c r="J381" s="20"/>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B382" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D382" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F382" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G382" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H382" s="19"/>
+      <c r="I382" s="19"/>
+      <c r="J382" s="20"/>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B383" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E383" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F383" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G383" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H383" s="19"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="20"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B384" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F384" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G384" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H384" s="19"/>
+      <c r="I384" s="19"/>
+      <c r="J384" s="20"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B385" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E385" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F385" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G385" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H385" s="19"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B386" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E386" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F386" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G386" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B387" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F387" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G387" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H387" s="19"/>
+      <c r="I387" s="19"/>
+      <c r="J387" s="20"/>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B388" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E388" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F388" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G388" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H388" s="19"/>
+      <c r="I388" s="19"/>
+      <c r="J388" s="20"/>
+    </row>
+    <row r="389" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B389" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E389" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F389" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G389" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H389" s="19"/>
+      <c r="I389" s="19"/>
+      <c r="J389" s="20"/>
+    </row>
+    <row r="390" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B390" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D390" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E390" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F390" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G390" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H390" s="19"/>
+      <c r="I390" s="19"/>
+      <c r="J390" s="20"/>
+    </row>
+    <row r="391" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B391" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D391" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E391" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F391" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G391" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H391" s="19"/>
+      <c r="I391" s="19"/>
+      <c r="J391" s="20"/>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B392" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D392" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E392" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F392" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G392" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H392" s="19"/>
+      <c r="I392" s="19"/>
+      <c r="J392" s="20"/>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B393" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D393" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E393" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F393" s="18">
+        <v>25396</v>
+      </c>
+      <c r="G393" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H393" s="19"/>
+      <c r="I393" s="19"/>
+      <c r="J393" s="20"/>
+    </row>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B394" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D394" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E394" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F394" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G394" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H394" s="19"/>
+      <c r="I394" s="19"/>
+      <c r="J394" s="20"/>
+    </row>
+    <row r="395" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B395" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D395" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E395" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F395" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G395" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H395" s="19"/>
+      <c r="I395" s="19"/>
+      <c r="J395" s="20"/>
+    </row>
+    <row r="396" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B396" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D396" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E396" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F396" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G396" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H396" s="19"/>
+      <c r="I396" s="19"/>
+      <c r="J396" s="20"/>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B397" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D397" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E397" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F397" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G397" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H397" s="19"/>
+      <c r="I397" s="19"/>
+      <c r="J397" s="20"/>
+    </row>
+    <row r="398" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B398" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D398" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E398" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F398" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G398" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H398" s="19"/>
+      <c r="I398" s="19"/>
+      <c r="J398" s="20"/>
+    </row>
+    <row r="399" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B399" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D399" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E399" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F399" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G399" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H399" s="19"/>
+      <c r="I399" s="19"/>
+      <c r="J399" s="20"/>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B400" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E400" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F400" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G400" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H400" s="19"/>
+      <c r="I400" s="19"/>
+      <c r="J400" s="20"/>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B401" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E401" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F401" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G401" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H401" s="19"/>
+      <c r="I401" s="19"/>
+      <c r="J401" s="20"/>
+    </row>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B402" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D402" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E402" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F402" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G402" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H402" s="19"/>
+      <c r="I402" s="19"/>
+      <c r="J402" s="20"/>
+    </row>
+    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B403" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D403" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E403" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F403" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G403" s="18">
+        <v>579155</v>
+      </c>
+      <c r="H403" s="19"/>
+      <c r="I403" s="19"/>
+      <c r="J403" s="20"/>
+    </row>
+    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B404" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D404" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E404" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F404" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G404" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H404" s="19"/>
+      <c r="I404" s="19"/>
+      <c r="J404" s="20"/>
+    </row>
+    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B405" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E405" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F405" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G405" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H405" s="19"/>
+      <c r="I405" s="19"/>
+      <c r="J405" s="20"/>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B406" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D406" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E406" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F406" s="18">
+        <v>98125</v>
+      </c>
+      <c r="G406" s="18">
+        <v>2453127</v>
+      </c>
+      <c r="H406" s="19"/>
+      <c r="I406" s="19"/>
+      <c r="J406" s="20"/>
+    </row>
+    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B407" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E407" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D368" s="23" t="s">
+      <c r="F407" s="18">
+        <v>98125</v>
+      </c>
+      <c r="G407" s="18">
+        <v>2453127</v>
+      </c>
+      <c r="H407" s="19"/>
+      <c r="I407" s="19"/>
+      <c r="J407" s="20"/>
+    </row>
+    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B408" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D408" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E408" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E368" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F368" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G368" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H368" s="25"/>
-      <c r="I368" s="25"/>
-      <c r="J368" s="26"/>
-    </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B373" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C373" s="32"/>
-      <c r="H373" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-    </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B374" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C374" s="32"/>
-      <c r="H374" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
+      <c r="F408" s="24">
+        <v>98125</v>
+      </c>
+      <c r="G408" s="24">
+        <v>2453127</v>
+      </c>
+      <c r="H408" s="25"/>
+      <c r="I408" s="25"/>
+      <c r="J408" s="26"/>
+    </row>
+    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B413" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C413" s="32"/>
+      <c r="H413" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B414" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C414" s="32"/>
+      <c r="H414" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="H374:J374"/>
-    <mergeCell ref="H373:J373"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="H414:J414"/>
+    <mergeCell ref="H413:J413"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004042733.xlsx
+++ b/Data/EC/NIT-9004042733.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36E31D9-DB98-4AA8-9FB6-E1A6F4924DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C584250-1CD6-4997-90AB-21C98731C72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82443217-2088-4EDD-B41C-29B0EB9C7813}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F32EC86D-9599-439B-A9DF-B2565E8D8672}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="146">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,409 +65,382 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1042421402</t>
+  </si>
+  <si>
+    <t>FABIAN ALCIDES LONDOÑO PADILLA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047470034</t>
+  </si>
+  <si>
+    <t>JOHANNA PATRICIA VELASQUEZ IRIARTE</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1067595437</t>
+  </si>
+  <si>
+    <t>LUZ MARY PAEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>45531422</t>
+  </si>
+  <si>
+    <t>ROSALBA COLON OROZCO</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>45758136</t>
+  </si>
+  <si>
+    <t>ALEXANDRA BLANCO BLANCO</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1143345806</t>
+  </si>
+  <si>
+    <t>KELLY JOHANNA AHUMADA BATISTA</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>1047402190</t>
   </si>
   <si>
     <t>YUSTIN CAROLINA ROMERO MENDOZA</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>33354379</t>
+  </si>
+  <si>
+    <t>GEHIDI YOHANA MARTINEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>45758136</t>
-  </si>
-  <si>
-    <t>ALEXANDRA BLANCO BLANCO</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1042421402</t>
-  </si>
-  <si>
-    <t>FABIAN ALCIDES LONDOÑO PADILLA</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>45531422</t>
-  </si>
-  <si>
-    <t>ROSALBA COLON OROZCO</t>
-  </si>
-  <si>
-    <t>33219652</t>
-  </si>
-  <si>
-    <t>SURGEIDIS ARGUELLES PIÑERES</t>
-  </si>
-  <si>
-    <t>33354379</t>
-  </si>
-  <si>
-    <t>GEHIDI YOHANA MARTINEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>1143345806</t>
-  </si>
-  <si>
-    <t>KELLY JOHANNA AHUMADA BATISTA</t>
-  </si>
-  <si>
-    <t>1047470034</t>
-  </si>
-  <si>
-    <t>JOHANNA PATRICIA VELASQUEZ IRIARTE</t>
-  </si>
-  <si>
-    <t>1235047649</t>
-  </si>
-  <si>
-    <t>LEOFEL ADRIAN ROMAN PRADA</t>
-  </si>
-  <si>
-    <t>1067595437</t>
-  </si>
-  <si>
-    <t>LUZ MARY PAEZ</t>
-  </si>
-  <si>
-    <t>1047480051</t>
-  </si>
-  <si>
-    <t>JULIO CESAR AYALA BUELVAS</t>
-  </si>
-  <si>
-    <t>33253802</t>
-  </si>
-  <si>
-    <t>ELIANA MARGARITA PAJARO POLO</t>
-  </si>
-  <si>
-    <t>1143405745</t>
-  </si>
-  <si>
-    <t>CICELY ENETH SEMACARITT CASTILLO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -566,7 +539,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -579,9 +554,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -781,23 +754,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,10 +798,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,7 +854,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9134E4C-7FDB-3944-743F-1148D5676C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F1A917-C8CA-A7ED-660E-1083230DF9A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E4487-9436-4143-B286-9A91A3FF7BD4}">
-  <dimension ref="B2:J414"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384AAA13-3D00-4E87-9F9F-E43904DBFC39}">
+  <dimension ref="B2:J382"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1257,7 +1230,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1302,7 +1275,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1334,12 +1307,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14436085</v>
+        <v>12834778</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1350,17 +1323,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1387,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1410,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1424,19 +1397,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1453,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1470,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1502,10 +1475,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1516,19 +1489,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1545,13 +1518,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1562,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1591,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1608,19 +1581,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1637,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1654,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1683,13 +1656,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1700,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1729,13 +1702,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1746,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1775,13 +1748,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1792,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1821,13 +1794,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1838,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1867,13 +1840,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1884,19 +1857,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1913,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1930,19 +1903,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1959,13 +1932,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1976,19 +1949,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2005,13 +1978,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2022,19 +1995,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2045,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2068,19 +2041,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2091,19 +2064,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2114,19 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2137,19 +2110,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2160,19 +2133,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2183,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2206,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2229,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2252,19 +2225,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2275,19 +2248,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2298,19 +2271,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2321,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2344,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>90696</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2367,19 +2340,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>90696</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
-        <v>4492596</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2390,16 +2363,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2413,16 +2386,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2436,16 +2409,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2459,16 +2432,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2482,16 +2455,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2505,16 +2478,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2528,16 +2501,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2551,16 +2524,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2574,16 +2547,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2597,13 +2570,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2620,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2643,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2666,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2689,13 +2662,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2712,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2735,13 +2708,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2758,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2781,13 +2754,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2804,13 +2777,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2827,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2850,13 +2823,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2873,19 +2846,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>25396</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2896,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2919,13 +2892,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2942,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2965,13 +2938,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2988,13 +2961,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -3011,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3034,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3057,13 +3030,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3080,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3103,13 +3076,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3126,13 +3099,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3149,19 +3122,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3172,13 +3145,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3195,13 +3168,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3218,19 +3191,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3241,13 +3214,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3264,13 +3237,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3287,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3310,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3333,13 +3306,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3356,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3379,13 +3352,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3402,13 +3375,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3425,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3448,13 +3421,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3471,13 +3444,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3494,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3517,13 +3490,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3540,13 +3513,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3563,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3586,13 +3559,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3609,13 +3582,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3632,19 +3605,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D113" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E113" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3655,13 +3628,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3678,13 +3651,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3701,19 +3674,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3724,13 +3697,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3747,13 +3720,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3770,19 +3743,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3793,13 +3766,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3816,13 +3789,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3839,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3862,13 +3835,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3885,13 +3858,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3908,19 +3881,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3931,13 +3904,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3954,13 +3927,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3977,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4000,13 +3973,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -4023,13 +3996,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -4046,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4069,13 +4042,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4092,13 +4065,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4115,19 +4088,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4138,13 +4111,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4161,13 +4134,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4184,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4207,13 +4180,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4230,13 +4203,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4253,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4276,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4299,16 +4272,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F142" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
         <v>781242</v>
@@ -4322,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F143" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4345,16 +4318,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F144" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4368,19 +4341,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F145" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4391,16 +4364,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="F146" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4414,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F147" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4437,16 +4410,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F148" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
         <v>781242</v>
@@ -4460,16 +4433,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F149" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
         <v>781242</v>
@@ -4483,19 +4456,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F150" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4506,16 +4479,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="F151" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4529,16 +4502,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F152" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
         <v>781242</v>
@@ -4552,19 +4525,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F153" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4575,16 +4548,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F154" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4598,16 +4571,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F155" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4621,19 +4594,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F156" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4644,16 +4617,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F157" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4667,16 +4640,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F158" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4690,19 +4663,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F159" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4713,16 +4686,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="F160" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4736,16 +4709,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="F161" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4759,19 +4732,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="F162" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4782,16 +4755,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="F163" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4805,16 +4778,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F164" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4828,19 +4801,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="F165" s="18">
-        <v>27578</v>
+        <v>33125</v>
       </c>
       <c r="G165" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4851,19 +4824,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="F166" s="18">
-        <v>27578</v>
+        <v>90696</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4874,16 +4847,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F167" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4897,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F168" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4920,19 +4893,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F169" s="18">
-        <v>36341</v>
+        <v>33125</v>
       </c>
       <c r="G169" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4943,19 +4916,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F170" s="18">
-        <v>36341</v>
+        <v>90696</v>
       </c>
       <c r="G170" s="18">
-        <v>908526</v>
+        <v>4766194</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4966,19 +4939,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F171" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4989,19 +4962,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F172" s="18">
-        <v>31200</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5012,19 +4985,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F173" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G173" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5035,19 +5008,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F174" s="18">
-        <v>52000</v>
+        <v>90696</v>
       </c>
       <c r="G174" s="18">
-        <v>1300000</v>
+        <v>4766194</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5058,19 +5031,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F175" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5081,19 +5054,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F176" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5104,19 +5077,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F177" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G177" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5127,19 +5100,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F178" s="18">
-        <v>52000</v>
+        <v>90696</v>
       </c>
       <c r="G178" s="18">
-        <v>1300000</v>
+        <v>4766194</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5150,19 +5123,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F179" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5173,19 +5146,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F180" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5196,19 +5169,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F181" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G181" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5219,19 +5192,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="F182" s="18">
-        <v>52000</v>
+        <v>90696</v>
       </c>
       <c r="G182" s="18">
-        <v>1300000</v>
+        <v>4766194</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5242,19 +5215,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F183" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5265,19 +5238,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F184" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5288,19 +5261,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F185" s="18">
-        <v>40000</v>
+        <v>33125</v>
       </c>
       <c r="G185" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5311,19 +5284,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F186" s="18">
-        <v>40000</v>
+        <v>90696</v>
       </c>
       <c r="G186" s="18">
-        <v>1000000</v>
+        <v>4766194</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5334,19 +5307,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F187" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5357,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F188" s="18">
-        <v>28000</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5380,19 +5353,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F189" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G189" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5403,19 +5376,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5426,13 +5399,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5449,13 +5422,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5472,19 +5445,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G193" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5495,19 +5468,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F194" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G194" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5518,13 +5491,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5541,13 +5514,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5564,19 +5537,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F197" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G197" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5587,19 +5560,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G198" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5610,13 +5583,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5633,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>28000</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5656,13 +5629,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5679,19 +5652,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5702,19 +5675,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G203" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5725,13 +5698,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5748,19 +5721,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G205" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5771,13 +5744,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5794,19 +5767,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F207" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G207" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5817,19 +5790,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G208" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5840,13 +5813,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5863,19 +5836,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F210" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G210" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5886,13 +5859,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5909,19 +5882,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F212" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5932,19 +5905,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G213" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5955,13 +5928,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5978,19 +5951,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6001,13 +5974,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -6024,19 +5997,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G217" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6047,19 +6020,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G218" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6070,13 +6043,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F219" s="18">
         <v>31249</v>
@@ -6093,13 +6066,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -6116,19 +6089,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F221" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G221" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6139,19 +6112,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G222" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6162,13 +6135,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
@@ -6185,13 +6158,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
@@ -6208,19 +6181,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G225" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6231,19 +6204,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G226" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6254,13 +6227,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6277,13 +6250,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6300,19 +6273,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F229" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G229" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6323,19 +6296,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>90696</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>4766194</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6346,13 +6319,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6369,13 +6342,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
@@ -6392,19 +6365,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G233" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6415,13 +6388,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6438,13 +6411,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6461,19 +6434,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F236" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G236" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6484,13 +6457,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6507,13 +6480,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
@@ -6530,19 +6503,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G239" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6553,13 +6526,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6576,13 +6549,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6599,19 +6572,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6622,13 +6595,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6645,13 +6618,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6668,19 +6641,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F245" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G245" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6691,13 +6664,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6714,13 +6687,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6737,19 +6710,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F248" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G248" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6760,13 +6733,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6783,13 +6756,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6806,19 +6779,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F251" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G251" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6829,19 +6802,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F252" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G252" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6852,13 +6825,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6875,13 +6848,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6898,19 +6871,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F255" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G255" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6921,19 +6894,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6944,13 +6917,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6967,13 +6940,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
@@ -6990,19 +6963,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F259" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G259" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7013,19 +6986,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F260" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G260" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7036,13 +7009,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7059,13 +7032,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -7082,19 +7055,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F263" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G263" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7105,19 +7078,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F264" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G264" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7128,13 +7101,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -7151,13 +7124,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7174,19 +7147,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F267" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G267" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7197,19 +7170,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G268" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7220,13 +7193,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7243,13 +7216,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7266,19 +7239,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G271" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7289,19 +7262,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F272" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G272" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7312,16 +7285,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F273" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G273" s="18">
         <v>781242</v>
@@ -7335,16 +7308,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F274" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7358,19 +7331,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F275" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G275" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7381,19 +7354,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F276" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G276" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7404,16 +7377,16 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F277" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
         <v>781242</v>
@@ -7427,16 +7400,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F278" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7450,19 +7423,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F279" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G279" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7473,19 +7446,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F280" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G280" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7496,16 +7469,16 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F281" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
         <v>781242</v>
@@ -7519,16 +7492,16 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F282" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G282" s="18">
         <v>781242</v>
@@ -7542,19 +7515,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F283" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G283" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7565,19 +7538,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F284" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G284" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7588,16 +7561,16 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F285" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G285" s="18">
         <v>781242</v>
@@ -7611,16 +7584,16 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F286" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
         <v>781242</v>
@@ -7634,19 +7607,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E287" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F287" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G287" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7657,19 +7630,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E288" s="16" t="s">
         <v>114</v>
       </c>
       <c r="F288" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G288" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7680,16 +7653,16 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F289" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
         <v>781242</v>
@@ -7703,19 +7676,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F290" s="18">
-        <v>25774</v>
+        <v>52000</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7726,16 +7699,16 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F291" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G291" s="18">
         <v>781242</v>
@@ -7749,19 +7722,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F292" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G292" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7772,19 +7745,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F293" s="18">
-        <v>25774</v>
+        <v>46400</v>
       </c>
       <c r="G293" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7795,16 +7768,16 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F294" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G294" s="18">
         <v>781242</v>
@@ -7818,19 +7791,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F295" s="18">
-        <v>25774</v>
+        <v>52000</v>
       </c>
       <c r="G295" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7841,16 +7814,16 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F296" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
         <v>781242</v>
@@ -7864,19 +7837,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F297" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7887,19 +7860,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F298" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G298" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7910,19 +7883,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F299" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7933,13 +7906,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F300" s="18">
         <v>52000</v>
@@ -7956,19 +7929,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F301" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G301" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7979,19 +7952,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="F302" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G302" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -8002,19 +7975,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="F303" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G303" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -8025,19 +7998,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F304" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G304" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8048,13 +8021,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F305" s="18">
         <v>52000</v>
@@ -8071,19 +8044,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F306" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8094,19 +8067,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="F307" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G307" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8117,19 +8090,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="F308" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G308" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8140,19 +8113,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F309" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G309" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8163,13 +8136,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F310" s="18">
         <v>52000</v>
@@ -8186,19 +8159,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F311" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8209,19 +8182,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F312" s="18">
-        <v>52000</v>
+        <v>33125</v>
       </c>
       <c r="G312" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8232,19 +8205,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F313" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G313" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8255,19 +8228,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F314" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G314" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8278,13 +8251,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F315" s="18">
         <v>52000</v>
@@ -8301,19 +8274,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F316" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8324,13 +8297,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F317" s="18">
         <v>33125</v>
@@ -8347,19 +8320,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F318" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G318" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8370,19 +8343,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F319" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8393,19 +8366,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F320" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G320" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8416,19 +8389,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F321" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8439,13 +8412,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F322" s="18">
         <v>33125</v>
@@ -8462,19 +8435,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F323" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G323" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8485,19 +8458,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F324" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G324" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8508,19 +8481,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F325" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G325" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8531,19 +8504,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="F326" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G326" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8554,13 +8527,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F327" s="18">
         <v>33125</v>
@@ -8577,19 +8550,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="F328" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G328" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8600,19 +8573,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="F329" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8623,19 +8596,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F330" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G330" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8646,19 +8619,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F331" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8669,13 +8642,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="F332" s="18">
         <v>33125</v>
@@ -8692,19 +8665,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F333" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G333" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8715,19 +8688,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="F334" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8738,19 +8711,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F335" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G335" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8761,19 +8734,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="F336" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8784,13 +8757,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F337" s="18">
         <v>33125</v>
@@ -8807,19 +8780,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="F338" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G338" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8830,19 +8803,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="F339" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8853,19 +8826,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F340" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G340" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8876,19 +8849,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="F341" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8899,13 +8872,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="F342" s="18">
         <v>33125</v>
@@ -8922,19 +8895,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F343" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G343" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8945,19 +8918,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="F344" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8968,19 +8941,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F345" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G345" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8991,19 +8964,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F346" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -9014,13 +8987,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F347" s="18">
         <v>33125</v>
@@ -9037,19 +9010,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F348" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G348" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9060,19 +9033,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F349" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9083,19 +9056,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F350" s="18">
-        <v>33125</v>
+        <v>31200</v>
       </c>
       <c r="G350" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9106,19 +9079,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="F351" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9129,13 +9102,13 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="F352" s="18">
         <v>33125</v>
@@ -9152,19 +9125,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F353" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G353" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9175,19 +9148,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F354" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G354" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9198,19 +9171,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F355" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G355" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9221,13 +9194,13 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="F356" s="18">
         <v>33125</v>
@@ -9244,19 +9217,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F357" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G357" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9267,19 +9240,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F358" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G358" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9290,19 +9263,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F359" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9313,13 +9286,13 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F360" s="18">
         <v>33125</v>
@@ -9336,19 +9309,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F361" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G361" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9359,19 +9332,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="F362" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G362" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9382,19 +9355,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="F363" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G363" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9405,13 +9378,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="F364" s="18">
         <v>33125</v>
@@ -9428,19 +9401,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F365" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G365" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9451,19 +9424,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F366" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G366" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9474,19 +9447,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F367" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G367" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9497,13 +9470,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F368" s="18">
         <v>33125</v>
@@ -9520,19 +9493,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F369" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G369" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9543,19 +9516,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F370" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G370" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9566,19 +9539,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="F371" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G371" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9589,13 +9562,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F372" s="18">
         <v>33125</v>
@@ -9612,19 +9585,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F373" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G373" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9635,19 +9608,19 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="F374" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G374" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
@@ -9658,811 +9631,75 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="F375" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G375" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
       <c r="J375" s="20"/>
     </row>
     <row r="376" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B376" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C376" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D376" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E376" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F376" s="18">
+      <c r="B376" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D376" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E376" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F376" s="24">
         <v>33125</v>
       </c>
-      <c r="G376" s="18">
+      <c r="G376" s="24">
         <v>828116</v>
       </c>
-      <c r="H376" s="19"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="20"/>
-    </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B377" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C377" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D377" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E377" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F377" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G377" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H377" s="19"/>
-      <c r="I377" s="19"/>
-      <c r="J377" s="20"/>
-    </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B378" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C378" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D378" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E378" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F378" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G378" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H378" s="19"/>
-      <c r="I378" s="19"/>
-      <c r="J378" s="20"/>
-    </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B379" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C379" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D379" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E379" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F379" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G379" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H379" s="19"/>
-      <c r="I379" s="19"/>
-      <c r="J379" s="20"/>
-    </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B380" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C380" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D380" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E380" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F380" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G380" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H380" s="19"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="20"/>
+      <c r="H376" s="25"/>
+      <c r="I376" s="25"/>
+      <c r="J376" s="26"/>
     </row>
     <row r="381" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B381" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C381" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D381" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E381" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F381" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G381" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H381" s="19"/>
-      <c r="I381" s="19"/>
-      <c r="J381" s="20"/>
+      <c r="B381" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C381" s="32"/>
+      <c r="H381" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
     </row>
     <row r="382" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B382" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C382" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D382" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E382" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F382" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G382" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H382" s="19"/>
-      <c r="I382" s="19"/>
-      <c r="J382" s="20"/>
-    </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B383" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C383" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D383" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F383" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G383" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H383" s="19"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="20"/>
-    </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B384" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C384" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D384" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E384" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F384" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G384" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H384" s="19"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
-    </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B385" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C385" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D385" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E385" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F385" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G385" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H385" s="19"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="20"/>
-    </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B386" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C386" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D386" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E386" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F386" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G386" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H386" s="19"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
-    </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B387" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C387" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D387" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E387" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F387" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G387" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H387" s="19"/>
-      <c r="I387" s="19"/>
-      <c r="J387" s="20"/>
-    </row>
-    <row r="388" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B388" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C388" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D388" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E388" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F388" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G388" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H388" s="19"/>
-      <c r="I388" s="19"/>
-      <c r="J388" s="20"/>
-    </row>
-    <row r="389" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B389" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C389" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D389" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E389" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F389" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G389" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H389" s="19"/>
-      <c r="I389" s="19"/>
-      <c r="J389" s="20"/>
-    </row>
-    <row r="390" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B390" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C390" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D390" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E390" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F390" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G390" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H390" s="19"/>
-      <c r="I390" s="19"/>
-      <c r="J390" s="20"/>
-    </row>
-    <row r="391" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B391" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C391" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D391" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E391" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F391" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G391" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H391" s="19"/>
-      <c r="I391" s="19"/>
-      <c r="J391" s="20"/>
-    </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B392" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C392" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D392" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E392" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F392" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G392" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H392" s="19"/>
-      <c r="I392" s="19"/>
-      <c r="J392" s="20"/>
-    </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B393" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C393" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D393" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E393" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F393" s="18">
-        <v>25396</v>
-      </c>
-      <c r="G393" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H393" s="19"/>
-      <c r="I393" s="19"/>
-      <c r="J393" s="20"/>
-    </row>
-    <row r="394" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B394" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C394" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D394" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E394" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F394" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G394" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H394" s="19"/>
-      <c r="I394" s="19"/>
-      <c r="J394" s="20"/>
-    </row>
-    <row r="395" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B395" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C395" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D395" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E395" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F395" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G395" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H395" s="19"/>
-      <c r="I395" s="19"/>
-      <c r="J395" s="20"/>
-    </row>
-    <row r="396" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B396" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C396" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D396" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E396" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F396" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G396" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H396" s="19"/>
-      <c r="I396" s="19"/>
-      <c r="J396" s="20"/>
-    </row>
-    <row r="397" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B397" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C397" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D397" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E397" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F397" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G397" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H397" s="19"/>
-      <c r="I397" s="19"/>
-      <c r="J397" s="20"/>
-    </row>
-    <row r="398" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B398" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C398" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D398" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E398" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F398" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G398" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H398" s="19"/>
-      <c r="I398" s="19"/>
-      <c r="J398" s="20"/>
-    </row>
-    <row r="399" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B399" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C399" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D399" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E399" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F399" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G399" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H399" s="19"/>
-      <c r="I399" s="19"/>
-      <c r="J399" s="20"/>
-    </row>
-    <row r="400" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B400" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D400" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E400" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F400" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G400" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H400" s="19"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="20"/>
-    </row>
-    <row r="401" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B401" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C401" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D401" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E401" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F401" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G401" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H401" s="19"/>
-      <c r="I401" s="19"/>
-      <c r="J401" s="20"/>
-    </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B402" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C402" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D402" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E402" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F402" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G402" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H402" s="19"/>
-      <c r="I402" s="19"/>
-      <c r="J402" s="20"/>
-    </row>
-    <row r="403" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B403" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C403" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D403" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E403" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F403" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G403" s="18">
-        <v>579155</v>
-      </c>
-      <c r="H403" s="19"/>
-      <c r="I403" s="19"/>
-      <c r="J403" s="20"/>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B404" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E404" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F404" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G404" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H404" s="19"/>
-      <c r="I404" s="19"/>
-      <c r="J404" s="20"/>
-    </row>
-    <row r="405" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B405" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C405" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D405" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F405" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G405" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H405" s="19"/>
-      <c r="I405" s="19"/>
-      <c r="J405" s="20"/>
-    </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B406" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C406" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D406" s="17" t="s">
+      <c r="B382" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E406" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F406" s="18">
-        <v>98125</v>
-      </c>
-      <c r="G406" s="18">
-        <v>2453127</v>
-      </c>
-      <c r="H406" s="19"/>
-      <c r="I406" s="19"/>
-      <c r="J406" s="20"/>
-    </row>
-    <row r="407" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B407" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C407" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D407" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E407" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F407" s="18">
-        <v>98125</v>
-      </c>
-      <c r="G407" s="18">
-        <v>2453127</v>
-      </c>
-      <c r="H407" s="19"/>
-      <c r="I407" s="19"/>
-      <c r="J407" s="20"/>
-    </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B408" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C408" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D408" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E408" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F408" s="24">
-        <v>98125</v>
-      </c>
-      <c r="G408" s="24">
-        <v>2453127</v>
-      </c>
-      <c r="H408" s="25"/>
-      <c r="I408" s="25"/>
-      <c r="J408" s="26"/>
-    </row>
-    <row r="413" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B413" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C413" s="32"/>
-      <c r="H413" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-    </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B414" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C414" s="32"/>
-      <c r="H414" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
+      <c r="C382" s="32"/>
+      <c r="H382" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="H414:J414"/>
-    <mergeCell ref="H413:J413"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="H381:J381"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
